--- a/data/trans_dic/P02E$otras-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P02E$otras-Edad-trans_dic.xlsx
@@ -676,28 +676,28 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.02221156019311723</v>
+        <v>0.0220168431400774</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007099737945698659</v>
+        <v>0.01688808512365594</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01887050339840861</v>
+        <v>0.01838249112414879</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09537726241171122</v>
+        <v>0.09923912309901117</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01045793125453079</v>
+        <v>0.01056971664196472</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02620160919501838</v>
+        <v>0.02663451266956879</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07525919630768145</v>
+        <v>0.08132336455181252</v>
       </c>
     </row>
     <row r="6">
@@ -709,28 +709,28 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.1753212864488422</v>
+        <v>0.1960872588751437</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1529359417600213</v>
+        <v>0.158313039301817</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1422806320471133</v>
+        <v>0.159689811324749</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1105711638255083</v>
+        <v>0.1040360515211139</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2449519214405199</v>
+        <v>0.2536582413925028</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08946934875537829</v>
+        <v>0.0936528351447912</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1045206965565662</v>
+        <v>0.1043910838555831</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1916004289738553</v>
+        <v>0.1900019681830409</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09831209753154421</v>
+        <v>0.09522727633400607</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03303652323212245</v>
+        <v>0.03481774080748074</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02237949364967714</v>
+        <v>0.02194976690975737</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06278422847837828</v>
+        <v>0.06433792453378828</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05042692073918675</v>
+        <v>0.05176315998396507</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05864870983922876</v>
+        <v>0.05820298634294326</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08480768924472377</v>
+        <v>0.0862103199581984</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05265781651952984</v>
+        <v>0.054003971804372</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05191644900468022</v>
+        <v>0.05233398289264615</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2140811318080526</v>
+        <v>0.2122044660079166</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09936629372345786</v>
+        <v>0.0983816377550909</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09038291922348717</v>
+        <v>0.09206401829912952</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1308404290742227</v>
+        <v>0.1315146050621558</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1079950432677937</v>
+        <v>0.1048173691969185</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1277431256618027</v>
+        <v>0.1249242710956752</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1445172228775176</v>
+        <v>0.1444437268254148</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09393650219226964</v>
+        <v>0.09880229879384404</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09832958205674572</v>
+        <v>0.1018244637602937</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03723435709849356</v>
+        <v>0.03681991136521779</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03274640355658651</v>
+        <v>0.03349726139657403</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0366548900785532</v>
+        <v>0.03737308448200631</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02243426582116047</v>
+        <v>0.02284959393652054</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0254528402224645</v>
+        <v>0.02475354150721813</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06250059822483615</v>
+        <v>0.06329612666029158</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03423143227537772</v>
+        <v>0.03338303585497703</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03205935336739078</v>
+        <v>0.03305838542803326</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05771555783351787</v>
+        <v>0.0579968294678261</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09906787722116799</v>
+        <v>0.0962939621536387</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07860507068762584</v>
+        <v>0.07681496221709463</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08729938773437732</v>
+        <v>0.09131972177310947</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06109882196900234</v>
+        <v>0.06145164526415414</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05804373655314142</v>
+        <v>0.05890140001761669</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.119318366532175</v>
+        <v>0.1224263012273517</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06650716732903966</v>
+        <v>0.06602397961709046</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06028198006518042</v>
+        <v>0.06010271440971512</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09641995205738069</v>
+        <v>0.09661720168405667</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0093845852056538</v>
+        <v>0.009458394605578145</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009025174652278678</v>
+        <v>0.008855626900374626</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02042263178198802</v>
+        <v>0.02036869319848048</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.007011192339081006</v>
+        <v>0.007065000729212506</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01671210834639994</v>
+        <v>0.01661384779950494</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01720798217376302</v>
+        <v>0.01770698529308542</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01236995159570506</v>
+        <v>0.01264815642984968</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01615737331835691</v>
+        <v>0.01730095198665656</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0255574313639748</v>
+        <v>0.0275684345772001</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08715792424397616</v>
+        <v>0.08628282018847581</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05110211336604555</v>
+        <v>0.05312353103570341</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09586809033320776</v>
+        <v>0.09246424654042296</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06515475549214909</v>
+        <v>0.07369527722137427</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06633978392988889</v>
+        <v>0.06170897907832336</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08657170281398181</v>
+        <v>0.0880618738865544</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05535707184767001</v>
+        <v>0.05802278648897552</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04841781599320245</v>
+        <v>0.04979972337828859</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07526814368903716</v>
+        <v>0.07595863376481282</v>
       </c>
     </row>
     <row r="16">
@@ -1119,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01110215347191662</v>
+        <v>0.01060553063020893</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05399695966894</v>
+        <v>0.04193065520893837</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01257944533910257</v>
+        <v>0.01760152759799626</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01496707432732695</v>
+        <v>0.0149401707053012</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03646673956193557</v>
+        <v>0.03349827699644637</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3261779641121857</v>
+        <v>0.331369566490163</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1365565634410975</v>
+        <v>0.1355255002637362</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1397469381442357</v>
+        <v>0.1317061589276221</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1262923375989375</v>
+        <v>0.1257872867994081</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09690993988523747</v>
+        <v>0.1012215906041277</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2239596229967891</v>
+        <v>0.2292431287691924</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1240824891369167</v>
+        <v>0.1295452576926895</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08595722042453623</v>
+        <v>0.08773507829508237</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1516422839553103</v>
+        <v>0.1537738052468231</v>
       </c>
     </row>
     <row r="19">
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01971823612341033</v>
+        <v>0.01978384659396405</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01325559821242203</v>
+        <v>0.01316706911634521</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01396046303200158</v>
+        <v>0.01380294868372617</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01667862370724676</v>
+        <v>0.01676676068801309</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2444602129604053</v>
+        <v>0.2486910795750816</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2291925653703705</v>
+        <v>0.1824228129264638</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2966546524195987</v>
+        <v>0.2939060381091178</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1329386734663464</v>
+        <v>0.1223024520950361</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1564961300798754</v>
+        <v>0.1712686625804357</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1208721461948139</v>
+        <v>0.1197885909194322</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.115485413356179</v>
+        <v>0.114531080587588</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1276000303322486</v>
+        <v>0.1280754576554899</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1403129037261625</v>
+        <v>0.138287949334686</v>
       </c>
     </row>
     <row r="22">
@@ -1325,29 +1325,29 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05341214802658571</v>
+        <v>0.05337013894734387</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07745758278710831</v>
+        <v>0.07651774564007284</v>
       </c>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="n">
-        <v>0.1350611812468144</v>
+        <v>0.1353368747915291</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07735610049136415</v>
+        <v>0.08017509856801186</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1340588160804319</v>
+        <v>0.1384787620118107</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1580785241881054</v>
+        <v>0.1597487132155931</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1171837435956005</v>
+        <v>0.1009103761808767</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.09766542013593613</v>
+        <v>0.1088877464886609</v>
       </c>
     </row>
     <row r="24">
@@ -1358,29 +1358,29 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4546057383062602</v>
+        <v>0.4638017666560367</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6579974359615326</v>
+        <v>0.6553823375692386</v>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.5071534715839887</v>
+        <v>0.5024493932694176</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3168977057766222</v>
+        <v>0.3227871234810513</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4366424603404067</v>
+        <v>0.4304685681749199</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4305452579080455</v>
+        <v>0.4380147868183302</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3590407700217546</v>
+        <v>0.3406850319204922</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3650418914103846</v>
+        <v>0.3555612718523058</v>
       </c>
     </row>
     <row r="25">
@@ -1430,31 +1430,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06176424516246202</v>
+        <v>0.06240109203997404</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0391650301272831</v>
+        <v>0.03901398668467522</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03737351098629013</v>
+        <v>0.03664899180784512</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04788630607533822</v>
+        <v>0.04733749628881735</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04250676692261318</v>
+        <v>0.04138943215534679</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.07669328221031403</v>
+        <v>0.07859561877848308</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05762032612183245</v>
+        <v>0.05716497346117174</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04458375687105001</v>
+        <v>0.04470865904178326</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.06509827507816755</v>
+        <v>0.06535864292016802</v>
       </c>
     </row>
     <row r="27">
@@ -1465,31 +1465,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1046491827477116</v>
+        <v>0.1083105060843207</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.06833876698288469</v>
+        <v>0.06866112221155705</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.06835132245620834</v>
+        <v>0.06987524625184713</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.0764077292563486</v>
+        <v>0.07616288242905106</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.06660233001372862</v>
+        <v>0.06472876826167703</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1140096308811253</v>
+        <v>0.114505053730915</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.08312023278935055</v>
+        <v>0.08246241397212378</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.06299831746736763</v>
+        <v>0.06297178081527088</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.09032429542492347</v>
+        <v>0.09078226656608492</v>
       </c>
     </row>
     <row r="28">
@@ -1722,28 +1722,28 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>359</v>
+        <v>854</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1918</v>
+        <v>1868</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8571</v>
+        <v>8918</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3737</v>
+        <v>3799</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>9831</v>
+        <v>10623</v>
       </c>
     </row>
     <row r="7">
@@ -1755,28 +1755,28 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>7189</v>
+        <v>8040</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6233</v>
+        <v>6452</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7193</v>
+        <v>8073</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11238</v>
+        <v>10573</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>22013</v>
+        <v>22796</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7211</v>
+        <v>7549</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14908</v>
+        <v>14890</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>25028</v>
+        <v>24819</v>
       </c>
     </row>
     <row r="8">
@@ -1861,31 +1861,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16403</v>
+        <v>15888</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7078</v>
+        <v>7459</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3879</v>
+        <v>3804</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19018</v>
+        <v>19488</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>19694</v>
+        <v>20216</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17208</v>
+        <v>17077</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>39838</v>
+        <v>40497</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>31847</v>
+        <v>32661</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>24230</v>
+        <v>24425</v>
       </c>
     </row>
     <row r="11">
@@ -1896,31 +1896,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35718</v>
+        <v>35405</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21288</v>
+        <v>21077</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15664</v>
+        <v>15955</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>39632</v>
+        <v>39836</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>42177</v>
+        <v>40936</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>37480</v>
+        <v>36653</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>67887</v>
+        <v>67852</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>56811</v>
+        <v>59754</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>45891</v>
+        <v>47522</v>
       </c>
     </row>
     <row r="12">
@@ -2005,31 +2005,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10074</v>
+        <v>9962</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13572</v>
+        <v>13884</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11428</v>
+        <v>11652</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8797</v>
+        <v>8960</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14611</v>
+        <v>14210</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25458</v>
+        <v>25782</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>22685</v>
+        <v>22123</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>31691</v>
+        <v>32679</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>41504</v>
+        <v>41706</v>
       </c>
     </row>
     <row r="15">
@@ -2040,31 +2040,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26804</v>
+        <v>26054</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>32580</v>
+        <v>31838</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27219</v>
+        <v>28472</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23959</v>
+        <v>24098</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33320</v>
+        <v>33812</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>48601</v>
+        <v>49867</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>44075</v>
+        <v>43754</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>59590</v>
+        <v>59412</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>69337</v>
+        <v>69478</v>
       </c>
     </row>
     <row r="16">
@@ -2149,31 +2149,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2064</v>
+        <v>2025</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3204</v>
+        <v>3195</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4372</v>
+        <v>4347</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3136</v>
+        <v>3227</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2861</v>
+        <v>2925</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>7922</v>
+        <v>8483</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8667</v>
+        <v>9349</v>
       </c>
     </row>
     <row r="19">
@@ -2184,31 +2184,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9623</v>
+        <v>9527</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11687</v>
+        <v>12149</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>15040</v>
+        <v>14506</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>7874</v>
+        <v>8906</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17357</v>
+        <v>16145</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>15778</v>
+        <v>16050</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12802</v>
+        <v>13418</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>23741</v>
+        <v>24418</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>25526</v>
+        <v>25760</v>
       </c>
     </row>
     <row r="20">
@@ -2305,19 +2305,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1116</v>
+        <v>1066</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3066</v>
+        <v>2381</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1069</v>
+        <v>1495</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3538</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="23">
@@ -2328,31 +2328,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5855</v>
+        <v>5948</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6711</v>
+        <v>6661</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5624</v>
+        <v>5300</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>8462</v>
+        <v>8429</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9742</v>
+        <v>10176</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>12716</v>
+        <v>13016</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>10542</v>
+        <v>11006</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>12866</v>
+        <v>13132</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>14712</v>
+        <v>14919</v>
       </c>
     </row>
     <row r="24">
@@ -2449,19 +2449,19 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>962</v>
+        <v>967</v>
       </c>
     </row>
     <row r="27">
@@ -2472,31 +2472,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3465</v>
+        <v>3525</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5109</v>
+        <v>4067</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6303</v>
+        <v>6244</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6239</v>
+        <v>5740</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7400</v>
+        <v>8098</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4406</v>
+        <v>4367</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>7057</v>
+        <v>6998</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>8878</v>
+        <v>8911</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>8096</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="28">
@@ -2581,29 +2581,29 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1158</v>
+        <v>1144</v>
       </c>
       <c r="E30" s="6" t="inlineStr"/>
       <c r="F30" s="6" t="n">
-        <v>3435</v>
+        <v>3442</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3190</v>
+        <v>3306</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>6019</v>
+        <v>6218</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6580</v>
+        <v>6650</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>6583</v>
+        <v>5669</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>5601</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="31">
@@ -2614,29 +2614,29 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>7364</v>
+        <v>7513</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>9836</v>
+        <v>9797</v>
       </c>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>12897</v>
+        <v>12777</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>13066</v>
+        <v>13309</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>19605</v>
+        <v>19328</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>17922</v>
+        <v>18233</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>20171</v>
+        <v>19140</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>20936</v>
+        <v>20392</v>
       </c>
     </row>
     <row r="32">
@@ -2721,31 +2721,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>38676</v>
+        <v>39075</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>38570</v>
+        <v>38421</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>28279</v>
+        <v>27731</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>48165</v>
+        <v>47613</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>64478</v>
+        <v>62784</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>85205</v>
+        <v>87318</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>94037</v>
+        <v>93294</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>111535</v>
+        <v>111848</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>121581</v>
+        <v>122067</v>
       </c>
     </row>
     <row r="35">
@@ -2756,31 +2756,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>65531</v>
+        <v>67823</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>67300</v>
+        <v>67618</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>51719</v>
+        <v>52872</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>76852</v>
+        <v>76606</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>101029</v>
+        <v>98187</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>126663</v>
+        <v>127213</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>135653</v>
+        <v>134579</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>157603</v>
+        <v>157537</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>168694</v>
+        <v>169550</v>
       </c>
     </row>
     <row r="36">
